--- a/Master.xlsx
+++ b/Master.xlsx
@@ -10821,7 +10821,7 @@
       <calculatedColumnFormula>'Table Seed Map'!$A$18&amp;"-"&amp;COUNTA($DB$2:FieldDepends[[#This Row],[Field for Depend]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="ID" dataDxfId="185">
-      <calculatedColumnFormula>IF(FieldDepends[[#This Row],[Field for Depend]]="","id",COUNTA(#REF!:FieldDepends[[#This Row],[Field for Depend]])+IF(VLOOKUP('Table Seed Map'!$A$18,SeedMap[],9,0),VLOOKUP('Table Seed Map'!$A$18,SeedMap[],9,0),0))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(FieldDepends[[#This Row],[Field for Depend]]="","id",-1+COUNTA($DB$1:FieldDepends[[#This Row],[Field for Depend]])+VLOOKUP('Table Seed Map'!$A$18,SeedMap[],9,0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Field ID" dataDxfId="184">
       <calculatedColumnFormula>IFERROR(VLOOKUP(FieldDepends[[#This Row],[Field for Depend]],FormFields[[Field Name]:[ID]],2,0),"form_field")</calculatedColumnFormula>
@@ -13418,8 +13418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:ES2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DW1" workbookViewId="0">
-      <selection activeCell="DZ2" sqref="DZ2"/>
+    <sheetView tabSelected="1" topLeftCell="DU1" workbookViewId="0">
+      <selection activeCell="DO1" sqref="DO1:DQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13474,8 +13474,8 @@
     <col min="67" max="67" width="29" customWidth="1"/>
     <col min="68" max="70" width="9.5703125" customWidth="1"/>
     <col min="71" max="71" width="9.5703125" style="20" customWidth="1"/>
-    <col min="72" max="72" width="22.7109375" style="20" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="27.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.7109375" style="20" customWidth="1"/>
+    <col min="73" max="73" width="27.7109375" style="20" hidden="1" customWidth="1"/>
     <col min="74" max="74" width="29" style="20" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="20" style="20" customWidth="1"/>
     <col min="76" max="76" width="39.85546875" style="20" bestFit="1" customWidth="1"/>
@@ -13485,11 +13485,12 @@
     <col min="80" max="80" width="10.5703125" style="20" hidden="1" customWidth="1"/>
     <col min="81" max="81" width="15.28515625" style="20" hidden="1" customWidth="1"/>
     <col min="82" max="82" width="9.5703125" style="20" customWidth="1"/>
-    <col min="83" max="83" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="11.7109375" customWidth="1"/>
     <col min="84" max="84" width="27.5703125" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="32.42578125" customWidth="1"/>
-    <col min="86" max="86" width="10.85546875" style="20" customWidth="1"/>
-    <col min="87" max="88" width="11.7109375" customWidth="1"/>
+    <col min="85" max="85" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="21.5703125" style="20" customWidth="1"/>
+    <col min="87" max="87" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="11.7109375" customWidth="1"/>
     <col min="89" max="89" width="11.7109375" hidden="1" customWidth="1"/>
     <col min="90" max="90" width="11.7109375" customWidth="1"/>
     <col min="91" max="95" width="11.7109375" style="20" hidden="1" customWidth="1"/>
@@ -13499,12 +13500,12 @@
     <col min="102" max="102" width="10.140625" hidden="1" customWidth="1"/>
     <col min="103" max="103" width="0" hidden="1" customWidth="1"/>
     <col min="104" max="104" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="24.7109375" style="20" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="24.7109375" hidden="1" customWidth="1"/>
-    <col min="108" max="114" width="24.7109375" customWidth="1"/>
-    <col min="116" max="116" width="28.7109375" customWidth="1"/>
-    <col min="117" max="119" width="28.7109375" hidden="1" customWidth="1"/>
-    <col min="120" max="125" width="28.7109375" customWidth="1"/>
+    <col min="105" max="106" width="24.7109375" style="20" customWidth="1"/>
+    <col min="107" max="109" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="110" max="114" width="24.7109375" customWidth="1"/>
+    <col min="116" max="118" width="28.7109375" customWidth="1"/>
+    <col min="119" max="121" width="28.7109375" hidden="1" customWidth="1"/>
+    <col min="122" max="125" width="28.7109375" customWidth="1"/>
     <col min="126" max="126" width="9.7109375" customWidth="1"/>
     <col min="127" max="127" width="23.42578125" customWidth="1"/>
     <col min="128" max="128" width="22" customWidth="1"/>
@@ -14273,7 +14274,7 @@
         <v>Field Depends-0</v>
       </c>
       <c r="DD2" s="16" t="str">
-        <f>IF(FieldDepends[[#This Row],[Field for Depend]]="","id",COUNTA(#REF!:FieldDepends[[#This Row],[Field for Depend]])+IF(VLOOKUP('Table Seed Map'!$A$18,SeedMap[],9,0),VLOOKUP('Table Seed Map'!$A$18,SeedMap[],9,0),0))</f>
+        <f>IF(FieldDepends[[#This Row],[Field for Depend]]="","id",-1+COUNTA($DB$1:FieldDepends[[#This Row],[Field for Depend]])+VLOOKUP('Table Seed Map'!$A$18,SeedMap[],9,0))</f>
         <v>id</v>
       </c>
       <c r="DE2" s="16" t="str">
